--- a/0咪咕音乐/咪咕音乐sdkv390/咪咕音乐USS_music_sdk_v3.9.0测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐sdkv390/咪咕音乐USS_music_sdk_v3.9.0测试用例.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="320"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="320"/>
   </bookViews>
   <sheets>
-    <sheet name="aiui语音输入" sheetId="1" r:id="rId1"/>
+    <sheet name="sdk390" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aiui语音输入!$A$1:$T$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sdk390'!$A$1:$T$55</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="187">
   <si>
     <t>*功能模块</t>
   </si>
@@ -116,7 +116,8 @@
   </si>
   <si>
     <t>1、系统运行正常
-2、数据库中有全量数据</t>
+2、数据库中有全量数据
+3、sdk正常</t>
   </si>
   <si>
     <t>1、搜索管理台配置的动效搜索词</t>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>累计播放次数高于播放次数</t>
@@ -235,13 +239,14 @@
     <t>mgyysdk-009</t>
   </si>
   <si>
-    <t>刚刚好</t>
+    <t>刚刚好
+千里之外</t>
   </si>
   <si>
     <t>1、歌手tab搜索：刚刚好</t>
   </si>
   <si>
-    <t>1、返回歌手：薛之谦</t>
+    <t>1、返回目标歌手</t>
   </si>
   <si>
     <t>英文歌手名搜索</t>
@@ -259,286 +264,193 @@
     <t>1、歌手tab搜索：Mojito</t>
   </si>
   <si>
+    <t>带数字的歌曲名搜索</t>
+  </si>
+  <si>
+    <t>mgyysdk-011</t>
+  </si>
+  <si>
+    <t>2002年的第一场雪</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：2002年的第一场雪</t>
+  </si>
+  <si>
+    <t>带特殊字符的歌曲名搜索</t>
+  </si>
+  <si>
+    <t>mgyysdk-012</t>
+  </si>
+  <si>
+    <t>十年 (电影《摆渡人》插曲)</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：与共（《八角亭谜雾》连续剧片尾曲）</t>
+  </si>
+  <si>
+    <t>纠错匹配</t>
+  </si>
+  <si>
+    <t>中文歌曲名错字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-013</t>
+  </si>
+  <si>
+    <t>高白气球</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：高白气球</t>
+  </si>
+  <si>
     <t>1、返回歌手：周杰伦</t>
   </si>
   <si>
-    <t>带数字的歌曲名搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-011</t>
-  </si>
-  <si>
-    <t>2002年的第一场雪</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：2002年的第一场雪</t>
+    <t>中文歌曲名少字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-014</t>
+  </si>
+  <si>
+    <t>饿狼传</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：饿狼传</t>
+  </si>
+  <si>
+    <t>1、返回歌手：张学友</t>
+  </si>
+  <si>
+    <t>中文歌曲名多字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-015</t>
+  </si>
+  <si>
+    <t>千里之外人</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：世界的第一等</t>
+  </si>
+  <si>
+    <t>英文歌曲名错字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-016</t>
+  </si>
+  <si>
+    <t>love storg</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：be your lovv</t>
+  </si>
+  <si>
+    <t>中英文歌曲名少字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-017</t>
+  </si>
+  <si>
+    <t>love stor</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：be your lve</t>
+  </si>
+  <si>
+    <t>英文歌曲名多字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-018</t>
+  </si>
+  <si>
+    <t>love storyy</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：be your lovee</t>
+  </si>
+  <si>
+    <t>带有数字的歌曲名错字搜</t>
+  </si>
+  <si>
+    <t>mgyysdk-019</t>
+  </si>
+  <si>
+    <t>2003年的第一场雪</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：2003年的第一场雪</t>
   </si>
   <si>
     <t>1、返回歌手：刀郎</t>
   </si>
   <si>
-    <t>带特殊字符的歌曲名搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-012</t>
-  </si>
-  <si>
-    <t>十年 (电影《摆渡人》插曲)</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：与共（《八角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>1、返回歌手：阿朵</t>
-  </si>
-  <si>
-    <t>前中缀匹配</t>
-  </si>
-  <si>
-    <t>中文歌曲名前缀搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-013</t>
-  </si>
-  <si>
-    <t>你一定要</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：红色高跟</t>
-  </si>
-  <si>
-    <t>1、返回歌手：蔡健雅</t>
-  </si>
-  <si>
-    <t>中文歌曲名中缀搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-014</t>
-  </si>
-  <si>
-    <t>你写进我</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：你写进我</t>
-  </si>
-  <si>
-    <t>1、返回歌手：蒲熠星</t>
-  </si>
-  <si>
-    <t>英文歌曲名前缀搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-015</t>
-  </si>
-  <si>
-    <t>Love Your</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：Love Your</t>
-  </si>
-  <si>
-    <t>1、返回歌手：Justin Bieber</t>
-  </si>
-  <si>
-    <t>英文歌曲名中缀搜索-不支持</t>
-  </si>
-  <si>
-    <t>mgyysdk-016</t>
-  </si>
-  <si>
-    <t>ove Yourse</t>
-  </si>
-  <si>
-    <t>1、不返回歌手：Justin Bieber</t>
-  </si>
-  <si>
-    <t>带数字歌曲名前缀搜索</t>
-  </si>
-  <si>
-    <t>mgyysdk-017</t>
-  </si>
-  <si>
-    <t>2002年的</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：2002年的</t>
-  </si>
-  <si>
-    <t>带特殊字符歌曲名中缀搜索-不支持</t>
-  </si>
-  <si>
-    <t>mgyysdk-018</t>
-  </si>
-  <si>
-    <t>《八角亭谜雾》连续</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：《八角亭谜雾》连续</t>
-  </si>
-  <si>
-    <t>1、不返回歌手：阿朵</t>
-  </si>
-  <si>
-    <t>中文歌曲名错字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-019</t>
-  </si>
-  <si>
-    <t>高白气球</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：高白气球</t>
-  </si>
-  <si>
-    <t>中文歌曲名少字搜</t>
+    <t>带有数字的歌曲名少字搜</t>
   </si>
   <si>
     <t>mgyysdk-020</t>
   </si>
   <si>
-    <t>饿狼传</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：饿狼传</t>
-  </si>
-  <si>
-    <t>1、返回歌手：张学友</t>
-  </si>
-  <si>
-    <t>中文歌曲名多字搜</t>
+    <t>200年的第一场雪</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：200年的第一场雪</t>
+  </si>
+  <si>
+    <t>带有数字的歌曲名多字搜</t>
   </si>
   <si>
     <t>mgyysdk-021</t>
   </si>
   <si>
-    <t>世界的第一等</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：世界的第一等</t>
-  </si>
-  <si>
-    <t>1、返回歌手：刘德华</t>
-  </si>
-  <si>
-    <t>英文歌曲名错字搜</t>
+    <t>20022年的第一场雪</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：20022年的第一场雪</t>
+  </si>
+  <si>
+    <t>带有特殊字符的歌曲名错字搜</t>
   </si>
   <si>
     <t>mgyysdk-022</t>
   </si>
   <si>
-    <t>be your lovv</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：be your lovv</t>
-  </si>
-  <si>
-    <t>1、返回歌手：赵学而</t>
-  </si>
-  <si>
-    <t>中英文歌曲名少字搜</t>
+    <t>十年 (电影《摆渡人》插去)</t>
+  </si>
+  <si>
+    <t>带有特殊字符的歌曲名少字搜</t>
   </si>
   <si>
     <t>mgyysdk-023</t>
   </si>
   <si>
-    <t>be your lve</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：be your lve</t>
-  </si>
-  <si>
-    <t>英文歌曲名多字搜</t>
+    <t>十年 (电影《摆渡人》)</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：与共（《角亭谜雾》连续剧片尾曲）</t>
+  </si>
+  <si>
+    <t>带有特殊字符的歌曲名多字搜</t>
   </si>
   <si>
     <t>mgyysdk-024</t>
   </si>
   <si>
-    <t>be your lovee</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：be your lovee</t>
-  </si>
-  <si>
-    <t>带有数字的歌曲名错字搜</t>
+    <t>十年 (电影《摆渡人》插曲去)</t>
+  </si>
+  <si>
+    <t>1、歌手tab搜索：与共的（《八角亭谜雾》连续剧片尾曲）</t>
+  </si>
+  <si>
+    <t>通过乐队搜索歌手</t>
+  </si>
+  <si>
+    <t>中文乐队名</t>
+  </si>
+  <si>
+    <t>搜索中文乐队名</t>
   </si>
   <si>
     <t>mgyysdk-025</t>
-  </si>
-  <si>
-    <t>2003年的第一场雪</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：2003年的第一场雪</t>
-  </si>
-  <si>
-    <t>带有数字的歌曲名少字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-026</t>
-  </si>
-  <si>
-    <t>200年的第一场雪</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：200年的第一场雪</t>
-  </si>
-  <si>
-    <t>带有数字的歌曲名多字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-027</t>
-  </si>
-  <si>
-    <t>20022年的第一场雪</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：20022年的第一场雪</t>
-  </si>
-  <si>
-    <t>带有特殊字符的歌曲名错字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-028</t>
-  </si>
-  <si>
-    <t>与共（《八角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>带有特殊字符的歌曲名少字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-029</t>
-  </si>
-  <si>
-    <t>与共（《角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：与共（《角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>带有特殊字符的歌曲名多字搜</t>
-  </si>
-  <si>
-    <t>mgyysdk-030</t>
-  </si>
-  <si>
-    <t>与共的（《八角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>1、歌手tab搜索：与共的（《八角亭谜雾》连续剧片尾曲）</t>
-  </si>
-  <si>
-    <t>通过乐队搜索歌手</t>
-  </si>
-  <si>
-    <t>中文乐队名</t>
-  </si>
-  <si>
-    <t>搜索中文乐队名</t>
-  </si>
-  <si>
-    <t>mgyysdk-031</t>
   </si>
   <si>
     <t>小虎队
@@ -548,16 +460,13 @@
     <t>1、歌手tab搜索：小虎队</t>
   </si>
   <si>
-    <t>返回歌手：苏有朋、吴奇隆、陈志明</t>
-  </si>
-  <si>
     <t>英文乐队名</t>
   </si>
   <si>
     <t>搜索英文乐队名</t>
   </si>
   <si>
-    <t>mgyysdk-032</t>
+    <t>mgyysdk-026</t>
   </si>
   <si>
     <t>EXO
@@ -568,29 +477,27 @@
     <t>1、歌手tab搜索：Namolla Family</t>
   </si>
   <si>
-    <t>1、返回歌手：金泰焕</t>
-  </si>
-  <si>
     <t>数字乐队名</t>
   </si>
   <si>
     <t>搜索数字乐队名</t>
   </si>
   <si>
-    <t>mgyysdk-033</t>
+    <t>mgyysdk-027</t>
+  </si>
+  <si>
+    <t>1、系统运行正常
+2、数据库中有全量数据</t>
   </si>
   <si>
     <t>鲍家街43号
 F4</t>
   </si>
   <si>
-    <t>搜索结果返回歌手：孙协志、王仁甫、许孟哲</t>
-  </si>
-  <si>
     <t>版本大于等于3.9.0</t>
   </si>
   <si>
-    <t>mgyysdk-034</t>
+    <t>mgyysdk-028</t>
   </si>
   <si>
     <t>1、高版本歌手tab搜索目标词
@@ -603,7 +510,7 @@
     <t>版本小于3.9.0</t>
   </si>
   <si>
-    <t>mgyysdk-035</t>
+    <t>mgyysdk-029</t>
   </si>
   <si>
     <t>1、低版本歌手tab搜索目标词
@@ -611,6 +518,113 @@
   </si>
   <si>
     <t>1、不返回关联歌手</t>
+  </si>
+  <si>
+    <t>全局运营弹框</t>
+  </si>
+  <si>
+    <t>全局搜索页面</t>
+  </si>
+  <si>
+    <t>mgyysdk-030</t>
+  </si>
+  <si>
+    <t>1、打开sdk进入全局搜索页面
+2、查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_common</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--单曲</t>
+  </si>
+  <si>
+    <t>mgyysdk-031</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入单曲结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_song</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--专辑</t>
+  </si>
+  <si>
+    <t>mgyysdk-032</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入专辑结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_album</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--视频</t>
+  </si>
+  <si>
+    <t>mgyysdk-033</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入视频结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_mv</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--歌手</t>
+  </si>
+  <si>
+    <t>mgyysdk-034</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入歌手结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_singer</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--演唱会</t>
+  </si>
+  <si>
+    <t>mgyysdk-035</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入演唱会结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_concert</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--票务</t>
+  </si>
+  <si>
+    <t>mgyysdk-036</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入票务结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_ticket</t>
+  </si>
+  <si>
+    <t>全局搜索结果页面--歌单</t>
+  </si>
+  <si>
+    <t>mgyysdk-037</t>
+  </si>
+  <si>
+    <t>1、搜索目标词进入歌单结果页
+2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1、返回结果中有search_song_sheet</t>
   </si>
 </sst>
 </file>
@@ -618,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -681,39 +695,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,6 +724,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -748,8 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,25 +785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,9 +801,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,8 +820,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,11 +842,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -857,19 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +895,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +949,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,25 +1009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,79 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,6 +1102,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1103,11 +1126,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,6 +1152,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,39 +1191,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1193,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,136 +1219,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,37 +1733,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5277777777778" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.6574074074074" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.525" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.6583333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1481481481481" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.7407407407407" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.962962962963" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.6851851851852" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.962962962963" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.1481481481481" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.2592592592593" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.7416666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.225" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.9666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.6833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.9666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.2583333333333" style="2" customWidth="1"/>
     <col min="14" max="14" width="6.41666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.6944444444444" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.6916666666667" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.41666666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.39814814814815" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.4" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:19">
+    <row r="1" ht="40.5" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="46.8" spans="1:19">
+    <row r="2" s="1" customFormat="1" ht="42.75" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1845,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="31.2" spans="1:19">
+    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:19">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>20</v>
@@ -1854,7 +1868,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="4" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1883,7 +1897,9 @@
       <c r="L4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -1891,10 +1907,10 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="31.2" spans="1:19">
+    <row r="5" s="1" customFormat="1" ht="28.5" spans="1:19">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1914,28 +1930,28 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="6" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>27</v>
@@ -1943,7 +1959,9 @@
       <c r="L6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1951,10 +1969,10 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="31.2" spans="1:19">
+    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:19">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -1974,28 +1992,28 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="8" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>27</v>
@@ -2003,7 +2021,9 @@
       <c r="L8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -2011,10 +2031,10 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="31.2" spans="1:19">
+    <row r="9" s="1" customFormat="1" ht="28.5" spans="1:19">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2034,25 +2054,25 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="10" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>26</v>
@@ -2063,7 +2083,9 @@
       <c r="L10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -2071,10 +2093,10 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:19">
+    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -2094,28 +2116,28 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="12" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>27</v>
@@ -2123,7 +2145,9 @@
       <c r="L12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -2131,10 +2155,10 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:19">
+    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -2154,28 +2178,28 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="14" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>27</v>
@@ -2183,7 +2207,9 @@
       <c r="L14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -2191,10 +2217,10 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:19">
+    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -2214,28 +2240,28 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="16" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>27</v>
@@ -2243,7 +2269,9 @@
       <c r="L16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -2251,28 +2279,28 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="17" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>27</v>
@@ -2280,7 +2308,9 @@
       <c r="L17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -2288,9 +2318,9 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="46.8" spans="1:19">
+    <row r="18" s="1" customFormat="1" ht="42.75" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2311,10 +2341,10 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="31.2" spans="1:19">
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
@@ -2334,11 +2364,11 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:19">
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A20" s="6"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2357,30 +2387,30 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="21" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>27</v>
@@ -2388,7 +2418,9 @@
       <c r="L21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -2396,30 +2428,30 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="22" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>27</v>
@@ -2427,7 +2459,9 @@
       <c r="L22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -2435,7 +2469,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="23" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2446,9 +2480,9 @@
         <v>72</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2458,7 +2492,7 @@
         <v>74</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>27</v>
@@ -2466,7 +2500,9 @@
       <c r="L23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -2474,30 +2510,30 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="24" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="J24" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>27</v>
@@ -2505,7 +2541,9 @@
       <c r="L24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -2513,11 +2551,11 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:19">
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2536,30 +2574,30 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="26" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>27</v>
@@ -2567,7 +2605,9 @@
       <c r="L26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -2575,30 +2615,30 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="27" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="J27" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>27</v>
@@ -2606,7 +2646,9 @@
       <c r="L27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -2614,30 +2656,30 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="28" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="J28" s="15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>27</v>
@@ -2645,7 +2687,9 @@
       <c r="L28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -2653,30 +2697,30 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="29" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="J29" s="15" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>27</v>
@@ -2684,7 +2728,9 @@
       <c r="L29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -2692,30 +2738,30 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="30" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="J30" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>27</v>
@@ -2723,7 +2769,9 @@
       <c r="L30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -2731,30 +2779,30 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="31" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="J31" s="15" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>27</v>
@@ -2762,7 +2810,9 @@
       <c r="L31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -2770,53 +2820,71 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.6" spans="1:19">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="32" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>27</v>
@@ -2824,7 +2892,9 @@
       <c r="L33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -2832,30 +2902,30 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="34" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>27</v>
@@ -2863,7 +2933,9 @@
       <c r="L34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -2871,7 +2943,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="35" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2882,19 +2954,19 @@
         <v>120</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>27</v>
@@ -2902,7 +2974,9 @@
       <c r="L35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="12"/>
+      <c r="M35" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -2910,30 +2984,30 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="36" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="J36" s="15" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -2941,7 +3015,9 @@
       <c r="L36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="12"/>
+      <c r="M36" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -2949,30 +3025,30 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="37" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="J37" s="15" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>27</v>
@@ -2980,7 +3056,9 @@
       <c r="L37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -2988,108 +3066,76 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="38" s="1" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3097,7 +3143,9 @@
       <c r="L40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -3105,69 +3153,53 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="41" s="1" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3175,7 +3207,9 @@
       <c r="L42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -3183,69 +3217,53 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="43" s="1" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="33" spans="1:19">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>27</v>
@@ -3253,7 +3271,9 @@
       <c r="L44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -3261,138 +3281,168 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="31.2" spans="1:19">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15.6" spans="1:19">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="13" t="s">
+    <row r="45" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15.6" spans="1:19">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="45" spans="1:19">
+      <c r="M45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>27</v>
@@ -3400,7 +3450,9 @@
       <c r="L49" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="12"/>
+      <c r="M49" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
@@ -3408,53 +3460,67 @@
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="15.6" spans="1:19">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" spans="1:19">
+    <row r="50" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>27</v>
@@ -3462,7 +3528,9 @@
       <c r="L51" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M51" s="12"/>
+      <c r="M51" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
@@ -3470,28 +3538,28 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="52" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="13" t="s">
-        <v>178</v>
+      <c r="D52" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>181</v>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>27</v>
@@ -3499,7 +3567,9 @@
       <c r="L52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="12"/>
+      <c r="M52" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
@@ -3507,28 +3577,28 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="45" spans="1:19">
+    <row r="53" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="13" t="s">
-        <v>182</v>
+      <c r="D53" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>185</v>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>27</v>
@@ -3536,7 +3606,9 @@
       <c r="L53" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M53" s="12"/>
+      <c r="M53" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
@@ -3544,20 +3616,38 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="15" spans="1:19">
+    <row r="54" s="1" customFormat="1" ht="49.5" spans="1:19">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
+      <c r="D54" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
@@ -3565,8 +3655,47 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
+    <row r="55" s="1" customFormat="1" ht="49.5" spans="1:19">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T51">
+  <autoFilter ref="A1:T55">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
